--- a/uploads/updated_file.xlsx
+++ b/uploads/updated_file.xlsx
@@ -530,7 +530,7 @@
 TMG, Ubuntu, Visual Basic Script, VBS, Veritas Netbackup, VPN, VRanger, Veeam, VMWare, VDI, virtual manchine, NMap, ZenMap.</v>
       </c>
       <c r="C2">
-        <v>0.009454522587424298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
@@ -685,7 +685,7 @@
 troubleshooting, validation</v>
       </c>
       <c r="C4">
-        <v>0.028307864588786206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" xml:space="preserve">
@@ -841,7 +841,7 @@
 management, Windows Server, Wiring</v>
       </c>
       <c r="C6">
-        <v>0.05763336005004606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" xml:space="preserve">
@@ -1671,7 +1671,7 @@
 Cum Laude - Murray State University May 2011</v>
       </c>
       <c r="C14">
-        <v>0.019608125920896984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" xml:space="preserve">
@@ -2772,7 +2772,7 @@
 Studio, website</v>
       </c>
       <c r="C26">
-        <v>0.017623269124756764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" xml:space="preserve">
@@ -4885,7 +4885,7 @@
 GPA 3.4</v>
       </c>
       <c r="C44">
-        <v>0.023439725586597383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" xml:space="preserve">
@@ -5124,7 +5124,7 @@
 â€¢ Encourage the other board members to collaborate and share their expertise.</v>
       </c>
       <c r="C47">
-        <v>0.02892939246137947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" xml:space="preserve">
@@ -7168,7 +7168,7 @@
 Skills</v>
       </c>
       <c r="C69">
-        <v>0.009509998101312912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" xml:space="preserve">
@@ -8876,7 +8876,7 @@
 Database Design, Information Architecture, Php, Software Requirements</v>
       </c>
       <c r="C86">
-        <v>0.013977053850743442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" xml:space="preserve">
@@ -9875,7 +9875,7 @@
 and development, Web designer, web design, Webmaster, Workflow, written, XML</v>
       </c>
       <c r="C95">
-        <v>0.02019025875926183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" xml:space="preserve">
@@ -10190,7 +10190,7 @@
 Management and Development Microsoft Network Administration Microsoft Office 2010 Information Technology Internship</v>
       </c>
       <c r="C98">
-        <v>0.02564167050027982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" xml:space="preserve">
@@ -11439,7 +11439,7 @@
 Access, Office, SharePoint, Enterprise, Oracle, PL/SQL, Oracle SQL, C, SAS, LINUX, Visual Basic</v>
       </c>
       <c r="C112">
-        <v>0.01193048440846161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" xml:space="preserve">
@@ -11791,7 +11791,7 @@
 GitHub: www.github.com/sagunpandey</v>
       </c>
       <c r="C115">
-        <v>0.15967022740582612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" xml:space="preserve">
